--- a/public/file/data-jadwal.xlsx
+++ b/public/file/data-jadwal.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Sistem-Peniliaian-Siswa\public\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\KP-SPS\public\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EDFCF53-1805-4FEA-9C87-395318399BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A61A99-D59A-4B31-9D2A-7A2345F53F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{2520C8B5-252B-41C2-8B4D-C910B23F95A1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{2520C8B5-252B-41C2-8B4D-C910B23F95A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -78,12 +78,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -100,13 +106,13 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,35 +430,35 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="9.140625" style="3"/>
-    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.109375" style="1"/>
+    <col min="7" max="7" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
